--- a/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
+++ b/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\くぴぽ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyotaMatsuguma/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B724180E-7378-46D0-80C5-F68A7DCC90FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C316C-18B3-C547-89D3-94510443CC85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31280" yWindow="4200" windowWidth="22780" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記入用紙" sheetId="1" r:id="rId1"/>
     <sheet name="記入要領" sheetId="2" r:id="rId2"/>
     <sheet name="サンプル" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>[IA-001]サーバレスアーキテクチャのビジネス適用</t>
   </si>
@@ -71,46 +71,6 @@
     <t>氏名</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>SCSK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（株）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>IT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マネジメント事業部</t>
-    </r>
-  </si>
-  <si>
     <t>サブリーダー</t>
   </si>
   <si>
@@ -121,9 +81,6 @@
   </si>
   <si>
     <t>リーダー</t>
-  </si>
-  <si>
-    <t>石野　大輔</t>
   </si>
   <si>
     <t>チームアドバイザー</t>
@@ -218,9 +175,6 @@
     <t>　 会社名にアルファベットやカタカナが入る場合もすべて全角でお願いいたします。</t>
   </si>
   <si>
-    <t>③株式会社は　㈱　で統一いただければと思います。</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -364,14 +318,14 @@
   </si>
   <si>
     <t>三井住友トラスト・システム＆サービス（株）</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ニッセイ情報テクノロジー（株）</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ヘルスケアソリューション事業部</t>
@@ -381,7 +335,7 @@
     <rPh sb="14" eb="15">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>貴田　潤平</t>
@@ -391,22 +345,120 @@
     <rPh sb="3" eb="5">
       <t>ジュンペイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Nissay Information Technology Co.,Ltd.</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Junpei Kida</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>みずほ情報総研（株）</t>
+    <rPh sb="3" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>開発本部第３事業部第５部</t>
+    <rPh sb="0" eb="1">
+      <t>カイハテゥ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ブ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石野　大輔</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>松隈　涼太</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">マツグマ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SCSK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（株）</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マネジメント事業部</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Mizuho Information &amp; Research Institute, Inc.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ryota Matsuguma</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③株式会社は　㈱　で統一いただければと思います。</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -424,12 +476,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -524,12 +570,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -566,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,7 +618,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,26 +946,24 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="44.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -933,163 +977,173 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="D16" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="18" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:8">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="21"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1">
+      <c r="C25" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1100,109 +1154,109 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="21"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1213,293 +1267,293 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="B11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30">
+      <c r="A19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="D22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="D24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12" t="s">
-        <v>64</v>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
+++ b/メンバー・リスト作成用ワークシート（日本語・英語） .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyotaMatsuguma/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mamoruk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C316C-18B3-C547-89D3-94510443CC85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20490721-0F59-2040-81C5-F898F35A5D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31280" yWindow="4200" windowWidth="22780" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記入用紙" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>[IA-001]サーバレスアーキテクチャのビジネス適用</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Mikio Kaya</t>
   </si>
   <si>
-    <t>Sumitomo Mitsui Trust Systems &amp; Services Co., Ltd</t>
-  </si>
-  <si>
     <t>Leader</t>
   </si>
   <si>
@@ -451,6 +448,36 @@
   </si>
   <si>
     <t>③株式会社は　㈱　で統一いただければと思います。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>日本アイ・ビー・エム株式会社</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テクニカル・エキスパート本部</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>北川　衛</t>
+    <rPh sb="0" eb="2">
+      <t>キタガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マモル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Trust Systems &amp; Services Co., Ltd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IBM Japan Co., Ltd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Mamoru Kitaagwa</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -946,7 +973,9 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -979,10 +1008,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>5</v>
@@ -993,19 +1022,19 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -1014,19 +1043,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1038,16 +1067,22 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -1070,22 +1105,22 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1102,14 +1137,14 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1120,7 +1155,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -1128,10 +1163,14 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
@@ -1169,72 +1208,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1242,17 +1281,17 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1282,138 +1321,138 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1426,14 +1465,14 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1457,47 +1496,47 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="17"/>
     </row>
@@ -1505,10 +1544,10 @@
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="17"/>
     </row>
@@ -1517,7 +1556,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="17"/>
     </row>
@@ -1526,7 +1565,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="17"/>
     </row>
@@ -1535,7 +1574,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -1544,12 +1583,12 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
